--- a/aw_creation/fixtures/example_zip_codes.xlsx
+++ b/aw_creation/fixtures/example_zip_codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,10 +34,10 @@
     <t>46920 1234</t>
   </si>
   <si>
-    <t>46922+1234</t>
-  </si>
-  <si>
-    <t>46921~1234</t>
+    <t>46926+1234</t>
+  </si>
+  <si>
+    <t>46923~1234</t>
   </si>
 </sst>
 </file>
@@ -142,14 +142,14 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
